--- a/ConcyssaWeb/wwwroot/Anexos/MigrarProvSAP.xlsx
+++ b/ConcyssaWeb/wwwroot/Anexos/MigrarProvSAP.xlsx
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>CardCode</t>
   </si>
@@ -294,10 +294,10 @@
     <t>QryGroup15</t>
   </si>
   <si>
-    <t>P10433764001</t>
+    <t>P20610535829</t>
   </si>
   <si>
-    <t xml:space="preserve">FLORES MAMANI BLANCA </t>
+    <t>BAHIA DEL PESCADOR S.A.C.</t>
   </si>
   <si>
     <t>S</t>
@@ -306,7 +306,7 @@
     <t/>
   </si>
   <si>
-    <t>10433764001</t>
+    <t>20610535829</t>
   </si>
   <si>
     <t>##</t>
@@ -328,6 +328,33 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>P10460548735</t>
+  </si>
+  <si>
+    <t>MARTINEZ CACERES ADELA NATALY</t>
+  </si>
+  <si>
+    <t>10460548735</t>
+  </si>
+  <si>
+    <t>P20608909053</t>
+  </si>
+  <si>
+    <t>INVERSIONES HUANCAYO LAMS S.A.C.</t>
+  </si>
+  <si>
+    <t>20608909053</t>
+  </si>
+  <si>
+    <t>P10443887399</t>
+  </si>
+  <si>
+    <t>CINTHIA ELENA PATIÑO ARRIETA</t>
+  </si>
+  <si>
+    <t>10443887399</t>
   </si>
 </sst>
 </file>
@@ -1198,9 +1225,61 @@
       <c r="HI3" s="2"/>
     </row>
     <row r="4" ht="13.5">
+      <c r="A4" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="0">
+        <v>101</v>
+      </c>
       <c r="F4" s="14"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="G4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="0">
+        <v>6</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>50</v>
+      </c>
       <c r="AG4" s="2"/>
       <c r="AH4" s="4"/>
       <c r="AI4" s="7"/>
@@ -1221,9 +1300,61 @@
       <c r="HI4" s="2"/>
     </row>
     <row r="5" ht="13.5">
+      <c r="A5" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="0">
+        <v>101</v>
+      </c>
       <c r="F5" s="14"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="G5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="0">
+        <v>6</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>50</v>
+      </c>
       <c r="AG5" s="2"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="7"/>
@@ -1244,9 +1375,61 @@
       <c r="HI5" s="2"/>
     </row>
     <row r="6" ht="13.5">
+      <c r="A6" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="0">
+        <v>101</v>
+      </c>
       <c r="F6" s="14"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="G6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="0">
+        <v>6</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>50</v>
+      </c>
       <c r="AG6" s="2"/>
       <c r="AH6" s="4"/>
       <c r="AI6" s="7"/>
